--- a/June2021/17.06.2021/Bank Statement.xlsx
+++ b/June2021/17.06.2021/Bank Statement.xlsx
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="189">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>Date:17.06.2021</t>
+  </si>
+  <si>
+    <t>Jafore bKash(-)</t>
   </si>
 </sst>
 </file>
@@ -3162,12 +3165,57 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3184,51 +3232,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3958,70 +3961,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="331" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341"/>
-      <c r="Q1" s="341"/>
-      <c r="R1" s="341"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
+      <c r="N1" s="331"/>
+      <c r="O1" s="331"/>
+      <c r="P1" s="331"/>
+      <c r="Q1" s="331"/>
+      <c r="R1" s="331"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="342"/>
-      <c r="N2" s="342"/>
-      <c r="O2" s="342"/>
-      <c r="P2" s="342"/>
-      <c r="Q2" s="342"/>
-      <c r="R2" s="342"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="332"/>
+      <c r="I2" s="332"/>
+      <c r="J2" s="332"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="332"/>
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
     </row>
     <row r="3" spans="1:25" s="93" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="343" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="350"/>
-      <c r="O3" s="350"/>
-      <c r="P3" s="350"/>
-      <c r="Q3" s="350"/>
-      <c r="R3" s="351"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="345"/>
       <c r="T3" s="94"/>
       <c r="U3" s="95"/>
       <c r="V3" s="95"/>
@@ -4030,55 +4033,55 @@
       <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="343" t="s">
+      <c r="A4" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="345" t="s">
+      <c r="B4" s="335" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="335" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="339" t="s">
+      <c r="D4" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="337" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="339" t="s">
+      <c r="F4" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="339" t="s">
+      <c r="G4" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="339" t="s">
+      <c r="H4" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="339" t="s">
+      <c r="I4" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="339" t="s">
+      <c r="J4" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="352" t="s">
+      <c r="K4" s="346" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="331" t="s">
+      <c r="L4" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="333" t="s">
+      <c r="M4" s="348" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="335" t="s">
+      <c r="N4" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="337" t="s">
+      <c r="O4" s="352" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="331" t="s">
+      <c r="P4" s="339" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="347" t="s">
+      <c r="Q4" s="341" t="s">
         <v>123</v>
       </c>
       <c r="R4" s="286" t="s">
@@ -4091,23 +4094,23 @@
       <c r="X4" s="95"/>
     </row>
     <row r="5" spans="1:25" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="344"/>
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="340"/>
-      <c r="K5" s="353"/>
-      <c r="L5" s="332"/>
-      <c r="M5" s="334"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="338"/>
-      <c r="P5" s="332"/>
-      <c r="Q5" s="348"/>
+      <c r="A5" s="334"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="340"/>
+      <c r="M5" s="349"/>
+      <c r="N5" s="351"/>
+      <c r="O5" s="353"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="342"/>
       <c r="R5" s="287" t="s">
         <v>32</v>
       </c>
@@ -7101,6 +7104,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7117,10 +7124,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9153,7 +9156,7 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9297,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="83">
-        <v>339766</v>
+        <v>39766</v>
       </c>
       <c r="G9" s="3"/>
       <c r="K9" s="120" t="s">
@@ -9425,8 +9428,12 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="85"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="35">
+        <v>300000</v>
+      </c>
       <c r="D15" s="372"/>
       <c r="E15" s="203"/>
       <c r="F15" s="228"/>
@@ -9462,7 +9469,7 @@
       </c>
       <c r="C17" s="28">
         <f>C7+C14+C12-C15-C13</f>
-        <v>2006021.03</v>
+        <v>1706021.03</v>
       </c>
       <c r="D17" s="372"/>
       <c r="E17" s="27" t="s">
@@ -9470,7 +9477,7 @@
       </c>
       <c r="F17" s="84">
         <f>F7+F8+F9+F10+F11+F12+F14-F13+F15</f>
-        <v>2006021.03</v>
+        <v>1706021.03</v>
       </c>
       <c r="G17" s="20"/>
       <c r="K17" s="120" t="s">
